--- a/Data/GGEE_23_Race_Eth_1.xlsx
+++ b/Data/GGEE_23_Race_Eth_1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC715B6-5984-D744-AB06-E5F27292CFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5195B8-8803-8546-8196-2E62E1B7734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Intro" sheetId="1" r:id="rId1"/>
+    <sheet name="Adv" sheetId="2" r:id="rId2"/>
+    <sheet name="All" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="14">
   <si>
     <t>Race</t>
   </si>
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +127,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
         <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -168,22 +174,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -205,10 +212,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -228,6 +232,9 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -271,7 +278,7 @@
     <tableColumn id="5" xr3:uid="{47D9BE22-145D-384A-AE5E-0998CAFE42E0}" name="Secondary"/>
     <tableColumn id="2" xr3:uid="{A387A88A-1027-B042-9633-EFD846F00040}" name="Program"/>
     <tableColumn id="3" xr3:uid="{F0C8C9A0-61C3-B34D-B3BC-EB602A57BBE7}" name="n"/>
-    <tableColumn id="4" xr3:uid="{E064A72F-1BF6-F342-9B48-84E4E34E70A6}" name="total" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{E064A72F-1BF6-F342-9B48-84E4E34E70A6}" name="total" dataDxfId="4">
       <calculatedColumnFormula>(D2/3)*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -280,13 +287,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D682E61D-2086-C74E-A076-0B2DA004C9DF}" name="Table13" displayName="Table13" ref="A1:E9" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D682E61D-2086-C74E-A076-0B2DA004C9DF}" name="Table13" displayName="Table13" ref="A1:E9" totalsRowShown="0" headerRowDxfId="3">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DA1A17ED-6E24-2047-93D3-29330D09EE02}" name="Race"/>
     <tableColumn id="5" xr3:uid="{01CA59BF-6207-7146-A46D-73A0FAD33E08}" name="Secondary"/>
     <tableColumn id="2" xr3:uid="{B619CA6E-E40B-6B4D-A97F-A420C3E9972E}" name="Program"/>
     <tableColumn id="3" xr3:uid="{EA371DD6-248F-2245-B621-959668B9E74E}" name="n"/>
-    <tableColumn id="4" xr3:uid="{B75148BB-ADEC-3143-B652-7534F3D7CE10}" name="total" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{B75148BB-ADEC-3143-B652-7534F3D7CE10}" name="total" dataDxfId="2">
       <calculatedColumnFormula>(D2/2)*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -295,14 +302,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AAFA33AE-C037-C746-9725-C9429C2BC58D}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0" headerRowDxfId="1">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
-    <sortCondition ref="C1:C15"/>
-  </sortState>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AAFA33AE-C037-C746-9725-C9429C2BC58D}" name="Table14" displayName="Table14" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B66A6D83-30FE-0F4C-A316-8FA1303ADCCC}" name="Race"/>
     <tableColumn id="5" xr3:uid="{B63C0E1F-64AC-2D4D-A8B9-C8AEF4FD8F66}" name="Secondary"/>
-    <tableColumn id="2" xr3:uid="{5BA093BC-CFD9-5B4C-8F14-22B9FAE70EA4}" name="Program"/>
     <tableColumn id="3" xr3:uid="{EF527358-83E7-7C47-8449-4DD1651D2860}" name="n"/>
     <tableColumn id="4" xr3:uid="{773275BC-0416-AD4A-912D-103FF64B063B}" name="total" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{46206CF9-AFD2-044B-B8CD-946DDC8DF9B7}" name="Column1"/>
@@ -598,19 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -631,7 +634,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -644,15 +647,15 @@
         <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -661,12 +664,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -675,52 +678,52 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -728,64 +731,64 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>42</v>
-      </c>
       <c r="E9" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -794,27 +797,27 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -852,7 +855,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
@@ -864,6 +867,9 @@
       <c r="E15" s="3">
         <v>6</v>
       </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -878,12 +884,12 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D9" sqref="A2:D9"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
@@ -908,7 +914,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -926,7 +932,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -944,7 +950,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
@@ -962,7 +968,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -980,7 +986,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1031,7 +1037,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
@@ -1041,8 +1047,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <f>(D9/1)*100</f>
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1055,19 +1060,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467AF85D-F400-9E4E-A87B-AFF74A20E72E}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,262 +1079,230 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D6" s="3">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>43</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
+      <c r="C11">
         <v>27</v>
       </c>
-      <c r="E12" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D11" s="3">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>84</v>
       </c>
-      <c r="E13" s="3">
+      <c r="D13" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="3"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/GGEE_23_Race_Eth_1.xlsx
+++ b/Data/GGEE_23_Race_Eth_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5195B8-8803-8546-8196-2E62E1B7734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4549370-5AA4-934F-B8C7-B3A94DB315D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="25200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -103,14 +103,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,18 +124,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,33 +150,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G2" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -616,7 +594,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,8 +611,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -647,14 +625,15 @@
         <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -664,66 +643,70 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>19</v>
       </c>
-      <c r="E4" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -731,64 +714,68 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="E7" s="3">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>42</v>
-      </c>
-      <c r="E8" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
       </c>
       <c r="E9" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -797,30 +784,32 @@
         <v>4</v>
       </c>
       <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
         <v>26</v>
       </c>
-      <c r="E11" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -836,8 +825,9 @@
       <c r="E13" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -853,9 +843,10 @@
       <c r="E14" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
@@ -867,6 +858,7 @@
       <c r="E15" s="3">
         <v>6</v>
       </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="3"/>
@@ -883,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5394AC64-8FC8-0C4A-AB5B-224658D24829}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H1" sqref="G1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -914,7 +906,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -932,7 +924,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -947,10 +939,10 @@
       <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
@@ -965,10 +957,10 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -983,10 +975,10 @@
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1001,6 +993,7 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1018,6 +1011,7 @@
       <c r="E7" s="3">
         <v>3</v>
       </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1035,9 +1029,10 @@
       <c r="E8" s="3">
         <v>3</v>
       </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
@@ -1049,6 +1044,7 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1062,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467AF85D-F400-9E4E-A87B-AFF74A20E72E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1089,7 +1085,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1104,7 +1100,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1119,7 +1115,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -1129,12 +1125,12 @@
         <v>21</v>
       </c>
       <c r="D4" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -1144,12 +1140,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1159,12 +1155,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1174,12 +1170,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1194,7 +1190,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1209,7 +1205,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -1224,7 +1220,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -1234,15 +1230,15 @@
         <v>27</v>
       </c>
       <c r="D11" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C12">
@@ -1254,7 +1250,7 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -1269,7 +1265,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
@@ -1284,7 +1280,7 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C15">
@@ -1305,6 +1301,7 @@
       <c r="D17" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
